--- a/medicine/Enfance/Clotilde_Goubely/Clotilde_Goubely.xlsx
+++ b/medicine/Enfance/Clotilde_Goubely/Clotilde_Goubely.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clotilde Goubely, née à Luçon, est une illustratrice et enseignante française. Elle vit et travaille à Bruxelles.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clotilde Goubely est diplômée en arts plastiques de l'Institut Saint-Luc de Bruxelles[1]. Elle est également professeure de dessin au sein de ce même établissement.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clotilde Goubely est diplômée en arts plastiques de l'Institut Saint-Luc de Bruxelles. Elle est également professeure de dessin au sein de ce même établissement.
 Clotilde Goubely se spécialise dans la littérature d'enfance et de jeunesse. En 2006, elle lance un blog graphique. Sa technique évolue progressivement vers le numérique. Elle réalise des œuvres hybrides mêlant la photographie et le dessin.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une histoire toute bête, Éléonore Thuillier, Clotilde Goubely, Éditions Frimousse, 32p, 2011,  (ISBN 9782352411000)
 Un drôle de visiteur, Éléonore Thuillier, Clotilde Goubely, Éditions Frimousse, 32p, 2015,  (ISBN 9782352412526)
@@ -582,10 +598,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2015 : Prix Landerneau de l'album jeunesse pour Un drôle de visiteur [2]
-2016 : Prix Paille en Queue de l'album jeunesse Catégorie CP / CE1 / CE2 pour Un drôle de visiteur[3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2015 : Prix Landerneau de l'album jeunesse pour Un drôle de visiteur 
+2016 : Prix Paille en Queue de l'album jeunesse Catégorie CP / CE1 / CE2 pour Un drôle de visiteur</t>
         </is>
       </c>
     </row>
